--- a/aiurt-module-system/src/main/resources/templates/stockInOrderLevelError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/stockInOrderLevelError.xlsx
@@ -756,11 +756,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A1" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="3"/>
